--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1059</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>580</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6ª CCJ</t>
+          <t>2ª CCJ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2ª CCJ</t>
+          <t>6ª CCJ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>557</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,43 +567,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2ª CCJ</t>
+          <t>6ª CCJ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6ª CCJ</t>
+          <t>2ª CCJ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1071</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>577</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1077</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>3ª CC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>648</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>557</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>821</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>529</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1029</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>837</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>991</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>828</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>591</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>780</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6ª CCJ</t>
+          <t>2ª CCJ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2ª CCJ</t>
+          <t>6ª CCJ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>951</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>629</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>594</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,43 +567,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2ª CCJ</t>
+          <t>6ª CCJ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6ª CCJ</t>
+          <t>2ª CCJ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>759</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5ª CC</t>
+          <t>7ª CC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7ª CC</t>
+          <t>5ª CC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>471</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>907</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>874</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>722</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>905</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>679</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>875</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>540</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>585</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>847</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>630</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6ª CC</t>
+          <t>7ª CC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7ª CC</t>
+          <t>6ª CC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>2ª CC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>2ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -643,6 +643,17 @@
       </c>
       <c r="C14" t="n">
         <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>647</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>484</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,33 +582,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2ª CCJ</t>
+          <t>1ª CCJ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1ª CCJ</t>
+          <t>2ª CCJ</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>788</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>646</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>764</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>663</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,43 +492,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5ª CC</t>
+          <t>2ª CC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2ª CC</t>
+          <t>5ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>599</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,18 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>758</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>5ª CC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>5ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>709</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5ª CC</t>
+          <t>2ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>5ª CC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/quantidade_processos.xlsx
+++ b/quantidade_processos.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,43 +492,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4ª CC</t>
+          <t>2ª CC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2ª CC</t>
+          <t>4ª CC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
